--- a/Millikan Oil Drop Experiment/Millikan oil drop data.xlsx
+++ b/Millikan Oil Drop Experiment/Millikan oil drop data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opdada01\Documents\PHYS-281-master\Millikan Oil Drop Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EF99C3-C7B4-4975-858B-AA4745174176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A093857-229C-40FF-AE59-6BD67C7165D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{B2274C18-6455-4DEB-9533-9C28EB4C78B0}"/>
   </bookViews>
@@ -382,19 +382,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFC7C4A-75CA-4C60-AAF2-287BB0068A1D}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,19 +403,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8.8260000000000005E-2</v>
       </c>
       <c r="B2">
         <v>8.1243999999999997E-2</v>
       </c>
-      <c r="D2">
-        <f>A2*10/1.626</f>
-        <v>0.54280442804428053</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.1104</v>
       </c>
@@ -422,35 +419,34 @@
         <v>0.35085</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D25" si="0">A3*10/1.626</f>
-        <v>0.67896678966789681</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <f>AVERAGE(A2,A3,A4)</f>
+        <v>0.10770666666666667</v>
+      </c>
+      <c r="F3">
+        <f>SQRT(B2^2+B3^2+B4^2)</f>
+        <v>0.36720185189620164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.12446</v>
       </c>
       <c r="B4">
         <v>7.17E-2</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0.76543665436654362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.12709999999999999</v>
       </c>
       <c r="B5">
         <v>0.14219999999999999</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.78167281672816724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>2.6179999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.1338</v>
       </c>
@@ -458,35 +454,34 @@
         <v>0.15537999999999999</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.82287822878228789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <f>AVERAGE(A5,A6,A7)</f>
+        <v>0.13388666666666668</v>
+      </c>
+      <c r="F6">
+        <f>SQRT(B5^2+B6^2+B7^2)</f>
+        <v>0.24374014851886835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.14076</v>
       </c>
       <c r="B7">
         <v>0.12266000000000001</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0.86568265682656831</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.17610000000000001</v>
       </c>
       <c r="B8">
         <v>0.55979999999999996</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1.0830258302583027</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>5.8113329999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.19791</v>
       </c>
@@ -494,35 +489,34 @@
         <v>0.17280999999999999</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1.217158671586716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <f>AVERAGE(A8,A9,A10)</f>
+        <v>0.19200000000000003</v>
+      </c>
+      <c r="F9">
+        <f>SQRT(B8^2+B9^2+B10^2)</f>
+        <v>0.8698044298001707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.20199</v>
       </c>
       <c r="B10">
         <v>0.64290000000000003</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1.2422509225092251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.22409999999999999</v>
       </c>
       <c r="B11">
         <v>0.71299999999999997</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1.378228782287823</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>4.0586667E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.23096</v>
       </c>
@@ -530,35 +524,34 @@
         <v>0.20501</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1.4204182041820419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <f>AVERAGE(A11,A12,A13)</f>
+        <v>0.23258666666666669</v>
+      </c>
+      <c r="F12">
+        <f>SQRT(B11^2+B12^2+B13^2)</f>
+        <v>0.79138317552245196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.2427</v>
       </c>
       <c r="B13">
         <v>0.27548</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1.4926199261992621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.26819999999999999</v>
       </c>
       <c r="B14">
         <v>0.4052</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>1.6494464944649447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>3.6130000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.26865</v>
       </c>
@@ -566,35 +559,34 @@
         <v>0.28305000000000002</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>1.6522140221402215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <f>AVERAGE(A14,A15,A16)</f>
+        <v>0.26871666666666666</v>
+      </c>
+      <c r="F15">
+        <f>SQRT(B14^2+B15^2+B16^2)</f>
+        <v>0.63970426956524218</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.26929999999999998</v>
       </c>
       <c r="B16">
         <v>0.40610000000000002</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>1.656211562115621</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.31022</v>
       </c>
       <c r="B17">
         <v>0.28238999999999997</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1.9078720787207872</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>6.6886665999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.34792000000000001</v>
       </c>
@@ -602,35 +594,34 @@
         <v>1.1073</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>2.1397293972939733</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <f>AVERAGE(A17,A18,A19)</f>
+        <v>0.33560333333333331</v>
+      </c>
+      <c r="F18">
+        <f>SQRT(B17^2+B18^2+B19^2)</f>
+        <v>1.183987857285707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.34866999999999998</v>
       </c>
       <c r="B19">
         <v>0.30979000000000001</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>2.1443419434194344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.34916999999999998</v>
       </c>
       <c r="B20">
         <v>0.31994</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>2.1474169741697415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>2.8533336999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.36110999999999999</v>
       </c>
@@ -638,35 +629,34 @@
         <v>0.32122000000000001</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>2.2208487084870852</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <f>AVERAGE(A20,A21,A22)</f>
+        <v>0.36413666666666672</v>
+      </c>
+      <c r="F21">
+        <f>SQRT(B20^2+B21^2+B22^2)</f>
+        <v>0.5668336130647158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.38213000000000003</v>
       </c>
       <c r="B22">
         <v>0.34022999999999998</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>2.3501230012300125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.42052</v>
       </c>
       <c r="B23">
         <v>1.3389</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>2.5862238622386222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>0.23162666600000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.64251999999999998</v>
       </c>
@@ -674,20 +664,30 @@
         <v>2.0467</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>3.9515375153751542</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <f>AVERAGE(A23,A24,A25)</f>
+        <v>0.59576333333333331</v>
+      </c>
+      <c r="F24">
+        <f>SQRT(B23^2+B24^2+B25^2)</f>
+        <v>3.3615759012701174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.72424999999999995</v>
       </c>
       <c r="B25">
         <v>2.3062</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>4.4541820418204185</v>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f>SQRT(F3^2+F6^2+F9^2+F12^2+F15^2+F18^2+F21^2)</f>
+        <v>1.9259913499899215</v>
+      </c>
+      <c r="I27">
+        <f>AVERAGE(I5,I8,I11,I14,I17,I20,I23)</f>
+        <v>6.9722380857142857E-2</v>
       </c>
     </row>
   </sheetData>
